--- a/scripts/Competences/CompetencesInformatique.xlsx
+++ b/scripts/Competences/CompetencesInformatique.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\EvaluationCompetences\scripts\Competences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E17DA17-28E3-4D55-81CB-52106A9EE19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A4005B-13F6-4352-9584-E2842ECC1638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1010" windowWidth="19200" windowHeight="9790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
   <si>
     <t>Choisir un type de variable.</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>Pondération des graphes.</t>
   </si>
 </sst>
 </file>
@@ -624,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39:I40"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1130,7 +1133,7 @@
         <v>73</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>69</v>

--- a/scripts/Competences/CompetencesInformatique.xlsx
+++ b/scripts/Competences/CompetencesInformatique.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\EvaluationCompetences\scripts\Competences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A4005B-13F6-4352-9584-E2842ECC1638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85EC497-A8A2-4223-9818-72306CD0DF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1010" windowWidth="19200" windowHeight="9790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="340" windowWidth="19180" windowHeight="9740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -627,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>

--- a/scripts/Competences/CompetencesInformatique.xlsx
+++ b/scripts/Competences/CompetencesInformatique.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\EvaluationCompetences\scripts\Competences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85EC497-A8A2-4223-9818-72306CD0DF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C08966-DBB9-43B8-864F-5167DE073311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="340" windowWidth="19180" windowHeight="9740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="87">
   <si>
     <t>Choisir un type de variable.</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>Pondération des graphes.</t>
+  </si>
+  <si>
+    <t>C-04</t>
+  </si>
+  <si>
+    <t>Analyser l'évolution des variables d'un algorithme</t>
   </si>
 </sst>
 </file>
@@ -638,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:B43"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1005,6 +1011,20 @@
         <v>2</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+    </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>79</v>
